--- a/datasets/satelliteData/satRgbFinal4_1000ft.xlsx
+++ b/datasets/satelliteData/satRgbFinal4_1000ft.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t xml:space="preserve">sat_label</t>
   </si>
@@ -177,174 +177,183 @@
     <t xml:space="preserve">Lawrenceville School’s Big Red Farm</t>
   </si>
   <si>
+    <t xml:space="preserve">gray21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darkseagreen4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmStony1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/farmStony1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stony Ford Field Station Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gardenMtLake1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/gardenMtLake1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt. Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gardenPrinceton1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/gardenPrinceton1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golfHopewell1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfHopewell1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopewell Golf course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golfPrinceton1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfPrinceton1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton golf course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserveMtLakes1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtLakes1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billie Johnson Mountain Lakes Nature Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserveMtRose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt Rose Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preserveStonyOctagon1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveStonyOctagon1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stony Ford Research Station; Octogon; Preserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schHopeElem1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeElem1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopewell Elemenary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schHopeHS_TimberMS1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeHS_TimberMS1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hopewell Central HS + Timberlane MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray30</t>
+  </si>
+  <si>
     <t xml:space="preserve">gray15</t>
   </si>
   <si>
-    <t xml:space="preserve">lemonchiffon4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmStony1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/farmStony1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stony Ford Field Station Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gardenMtLake1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/gardenMtLake1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mt. Lake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gardenPrinceton1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/gardenPrinceton1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princeton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golfHopewell1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfHopewell1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopewell Golf course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golfPrinceton1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/golfPrinceton1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princeton golf course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darkseagreen4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserveMtLakes1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtLakes1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billie Johnson Mountain Lakes Nature Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preserveMtRose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mt Rose Preserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schHopeElem1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeElem1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopewell Elemenary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schHopeHS_TimberMS1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/schHopeHS_TimberMS1000.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hopewell Central HS + Timberlane MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray30</t>
-  </si>
-  <si>
     <t xml:space="preserve">gray62</t>
   </si>
   <si>
@@ -390,7 +399,13 @@
     <t xml:space="preserve">gray33</t>
   </si>
   <si>
-    <t xml:space="preserve">gray21</t>
+    <t xml:space="preserve">univGuyotHall1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univGuyotHall1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyot Hall; Princeton Univ</t>
   </si>
   <si>
     <t xml:space="preserve">univSolarFarm</t>
@@ -963,52 +978,52 @@
         <v>0.111498233810753</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.371134230717642</v>
+        <v>0.371112290013538</v>
       </c>
       <c r="R2" t="n">
-        <v>0.211994578255969</v>
+        <v>0.211953987542483</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0937640854851558</v>
+        <v>0.0937391986598453</v>
       </c>
       <c r="T2" t="n">
-        <v>0.645704896483694</v>
+        <v>0.645686962943453</v>
       </c>
       <c r="U2" t="n">
-        <v>0.467474486192594</v>
+        <v>0.46745935946474</v>
       </c>
       <c r="V2" t="n">
-        <v>0.319220157861645</v>
+        <v>0.319171259139525</v>
       </c>
       <c r="W2" t="n">
-        <v>0.159749711620043</v>
+        <v>0.159711860315882</v>
       </c>
       <c r="X2" t="n">
-        <v>0.62321305728996</v>
+        <v>0.623203344536032</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.28067583353309</v>
+        <v>0.280663586500215</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.190744124837493</v>
+        <v>0.19072167620607</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.118748189053598</v>
+        <v>0.118730314352929</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.544767788679717</v>
+        <v>0.54474368362091</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.327932714403897</v>
+        <v>0.32798786653185</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.325357110028495</v>
+        <v>0.325426969390569</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.289122161963416</v>
+        <v>0.288987958452064</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0575880136041916</v>
+        <v>0.0575972056255171</v>
       </c>
       <c r="AG2" t="s">
         <v>40</v>
@@ -1183,52 +1198,52 @@
         <v>0.077674117576471</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.268331489458526</v>
+        <v>0.308261989666068</v>
       </c>
       <c r="R4" t="n">
-        <v>0.114577325360765</v>
+        <v>0.172870949557514</v>
       </c>
       <c r="S4" t="n">
-        <v>0.36484693401452</v>
+        <v>0.0797275431299152</v>
       </c>
       <c r="T4" t="n">
-        <v>0.53487951881783</v>
+        <v>0.441826476600981</v>
       </c>
       <c r="U4" t="n">
-        <v>0.399677256523525</v>
+        <v>0.435267243632586</v>
       </c>
       <c r="V4" t="n">
-        <v>0.204882038832871</v>
+        <v>0.293849637865717</v>
       </c>
       <c r="W4" t="n">
-        <v>0.478607650674788</v>
+        <v>0.147870535795477</v>
       </c>
       <c r="X4" t="n">
-        <v>0.530347190422563</v>
+        <v>0.511558131906394</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.202332854710511</v>
+        <v>0.223112931464936</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.127563381889834</v>
+        <v>0.165190637632139</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.269494581889859</v>
+        <v>0.103096044292542</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.449836016880978</v>
+        <v>0.351087991951111</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.413475503263168</v>
+        <v>0.484759628642338</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.304344149278426</v>
+        <v>0.244143763213531</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.247228605570365</v>
+        <v>0.156589760088243</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0349517418880412</v>
+        <v>0.114506848055887</v>
       </c>
       <c r="AG4" t="s">
         <v>48</v>
@@ -1237,21 +1252,21 @@
         <v>54</v>
       </c>
       <c r="AI4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1341,10 +1356,10 @@
         <v>0.0666917915249563</v>
       </c>
       <c r="AG5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AH5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="s">
         <v>48</v>
@@ -1513,52 +1528,52 @@
         <v>0.155319085943343</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.359592255656928</v>
+        <v>0.359539872477676</v>
       </c>
       <c r="R7" t="n">
-        <v>0.208527240019818</v>
+        <v>0.208511072196725</v>
       </c>
       <c r="S7" t="n">
-        <v>0.535827519569527</v>
+        <v>0.53573358076087</v>
       </c>
       <c r="T7" t="n">
-        <v>0.708763292307746</v>
+        <v>0.708681185531689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.427666932165352</v>
+        <v>0.427633509858399</v>
       </c>
       <c r="V7" t="n">
-        <v>0.260437520814392</v>
+        <v>0.260414452146218</v>
       </c>
       <c r="W7" t="n">
-        <v>0.537072108880704</v>
+        <v>0.53699685130856</v>
       </c>
       <c r="X7" t="n">
-        <v>0.703131564743488</v>
+        <v>0.703043482841826</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.374395225346952</v>
+        <v>0.374355327095815</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.279777367760303</v>
+        <v>0.279771935125495</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.542388859424892</v>
+        <v>0.54229150314656</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.71187600411655</v>
+        <v>0.711784619274918</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.336848975089622</v>
+        <v>0.336793822961669</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.288892361430279</v>
+        <v>0.288826178876735</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.237549407114624</v>
+        <v>0.237529184667708</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.136709256365475</v>
+        <v>0.136850813493887</v>
       </c>
       <c r="AG7" t="s">
         <v>73</v>
@@ -1784,27 +1799,27 @@
         <v>86</v>
       </c>
       <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9" t="s">
         <v>87</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>88</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
       </c>
       <c r="E10" t="n">
         <v>40.358217</v>
@@ -1843,78 +1858,78 @@
         <v>0.133877472895578</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.278508927318854</v>
+        <v>0.278448446702641</v>
       </c>
       <c r="R10" t="n">
-        <v>0.158040833585867</v>
+        <v>0.157992388661608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.456927163192972</v>
+        <v>0.456884065156749</v>
       </c>
       <c r="T10" t="n">
-        <v>0.634048325059054</v>
+        <v>0.634024170618858</v>
       </c>
       <c r="U10" t="n">
-        <v>0.368312416926831</v>
+        <v>0.368250155762034</v>
       </c>
       <c r="V10" t="n">
-        <v>0.225099901275923</v>
+        <v>0.225034734921656</v>
       </c>
       <c r="W10" t="n">
-        <v>0.498091565720636</v>
+        <v>0.498070259234274</v>
       </c>
       <c r="X10" t="n">
-        <v>0.628076466124859</v>
+        <v>0.628053764111136</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.300962519289618</v>
+        <v>0.300921875546255</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.225171673770787</v>
+        <v>0.225145585912457</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.41527907390034</v>
+        <v>0.415242051529536</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.63970509018911</v>
+        <v>0.639682830031392</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.363842264914055</v>
+        <v>0.363972791616877</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.268699328982443</v>
+        <v>0.268473205257836</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.261660079051383</v>
+        <v>0.261729938413457</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.105798327052119</v>
+        <v>0.10582406471183</v>
       </c>
       <c r="AG10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI10" t="s">
         <v>94</v>
       </c>
-      <c r="AH10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>95</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="n">
         <v>40.361706</v>
@@ -2004,7 +2019,7 @@
         <v>47</v>
       </c>
       <c r="AH11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="s">
         <v>48</v>
@@ -2015,662 +2030,882 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
         <v>100</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E12" t="n">
-        <v>40.38491</v>
+        <v>40.353131</v>
       </c>
       <c r="F12" t="n">
-        <v>-74.75798</v>
+        <v>-74.719621</v>
       </c>
       <c r="G12" t="n">
-        <v>40.38963</v>
+        <v>40.358575</v>
       </c>
       <c r="H12" t="n">
-        <v>-74.768464</v>
+        <v>-74.730171</v>
       </c>
       <c r="I12" t="n">
-        <v>40.380318</v>
+        <v>40.348568</v>
       </c>
       <c r="J12" t="n">
-        <v>-74.747441</v>
+        <v>-74.709132</v>
       </c>
       <c r="K12" t="n">
-        <v>0.345098039215686</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="L12" t="n">
-        <v>0.198504412494352</v>
+        <v>0.151727477082578</v>
       </c>
       <c r="M12" t="n">
-        <v>0.443137254901961</v>
+        <v>0.298039215686275</v>
       </c>
       <c r="N12" t="n">
-        <v>0.185839503634152</v>
+        <v>0.147656233231732</v>
       </c>
       <c r="O12" t="n">
-        <v>0.290196078431373</v>
+        <v>0.172549019607843</v>
       </c>
       <c r="P12" t="n">
-        <v>0.162294994747535</v>
+        <v>0.11878582045983</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.256162530951824</v>
+        <v>0.202271016082777</v>
       </c>
       <c r="R12" t="n">
-        <v>0.45527421196197</v>
+        <v>0.0890197138320948</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0876196359148935</v>
+        <v>0.370334551548454</v>
       </c>
       <c r="T12" t="n">
-        <v>0.62042194960682</v>
+        <v>0.600461227239149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.358680679076578</v>
+        <v>0.302898770374078</v>
       </c>
       <c r="V12" t="n">
-        <v>0.514886561176285</v>
+        <v>0.14213370866952</v>
       </c>
       <c r="W12" t="n">
-        <v>0.12824099453392</v>
+        <v>0.455013445386616</v>
       </c>
       <c r="X12" t="n">
-        <v>0.622775105468351</v>
+        <v>0.567875344106495</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.235650523138078</v>
+        <v>0.174116989041582</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.374646780461786</v>
+        <v>0.0989141206485668</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.12750344938082</v>
+        <v>0.269907272889382</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.560236347459414</v>
+        <v>0.526042174298197</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.292741979961394</v>
+        <v>0.370322639948525</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.281268498942918</v>
+        <v>0.319696663296259</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.217784722860557</v>
+        <v>0.243408401507491</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.208204798235132</v>
+        <v>0.066572295247725</v>
       </c>
       <c r="AG12" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="AH12" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="AI12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="n">
+        <v>40.38491</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-74.75798</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40.38963</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-74.768464</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40.380318</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-74.747441</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.345098039215686</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.198504412494352</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.443137254901961</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.185839503634152</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.290196078431373</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.162294994747535</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.255958625306257</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.455041255393952</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.087523655552637</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.620310576949488</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.358445672308588</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.514755209454413</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.128105580489825</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.622696497239834</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.235539756177254</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.374431546795418</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.127434475362088</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.560097415973341</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.292616968471367</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.281349388730582</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.217527346263443</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.208506296534608</v>
+      </c>
+      <c r="AG13" t="s">
         <v>106</v>
       </c>
-      <c r="C13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="n">
-        <v>40.328281</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-74.804559</v>
-      </c>
-      <c r="G13" t="n">
-        <v>40.333104</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-74.815095</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40.323715</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-74.793998</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.329411764705882</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.183228567361292</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.396078431372549</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.15019975992904</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.27843137254902</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.150453112360651</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.462285346109377</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.280193365021171</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.110364104958921</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.631077701949846</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.464103809330525</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.359380652810545</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.186475853632833</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.620168873370619</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.379354407494166</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.25031349731429</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.149006062329552</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.604124203847182</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.314422281459693</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.294789962312713</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.278360143395533</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.112427612832062</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>108</v>
-      </c>
       <c r="AH13" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="AI13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40.328281</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-74.804559</v>
+      </c>
+      <c r="G14" t="n">
+        <v>40.333104</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-74.815095</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40.323715</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-74.793998</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.329411764705882</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.183228567361292</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.396078431372549</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.15019975992904</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.27843137254902</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.150453112360651</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.462314657084228</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.280219230273096</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.11037347224444</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.631129576270117</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.464121555259979</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.359403248594048</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.186484222956837</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.620220119067551</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.379394115319803</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.250326296078251</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.149012279018443</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.604175320204976</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.314427796672488</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.294815699972424</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.278389557863774</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.112366945491314</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
+      <c r="AI14" t="s">
         <v>112</v>
       </c>
-      <c r="C14" t="s">
+      <c r="AJ14" t="s">
         <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40.321026</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-74.78868</v>
-      </c>
-      <c r="G14" t="n">
-        <v>40.325808</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-74.799129</v>
-      </c>
-      <c r="I14" t="n">
-        <v>40.316351</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-74.778149</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.231372549019608</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.170894891135323</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.325490196078431</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.145261227193099</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.231372549019608</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.13545251461225</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.20737078805117</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.391087004619425</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.0841149590697816</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.581359305045626</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.301789106646768</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.438322722436742</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.158961548114639</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.573688618737303</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.218103124095806</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.336845663020325</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.143980108602609</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.547984255399124</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.344224653001195</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.274203511352146</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.258955786377424</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.122616049269234</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40.321026</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-74.78868</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40.325808</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-74.799129</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40.316351</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-74.778149</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.231372549019608</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.170894891135323</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.325490196078431</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.145261227193099</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.231372549019608</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.13545251461225</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.20737078805117</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.391087004619425</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0841149590697816</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.581359305045626</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.301789106646768</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.438322722436742</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.158961548114639</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.573688618737303</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.218103124095806</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.336845663020325</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.143980108602609</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.547984255399124</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.344224653001195</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.274203511352146</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.258955786377424</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.122616049269234</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40.343974</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-74.656639</v>
-      </c>
-      <c r="G15" t="n">
-        <v>40.349467</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-74.667281</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40.339448</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-74.646367</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.36078431372549</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.17515960232127</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.435294117647059</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.15533061077335</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.368627450980392</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.151963265609189</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.358543282407924</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.203314677689189</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.525274304480216</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.705015402897754</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.4336226624657</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.25855227141954</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.5349709652057</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.698117525176316</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.366417251664178</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.270016072657327</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.528691647663216</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.705629203040954</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.335779023807335</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.32488647853663</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.221033183196985</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.11830131445905</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>119</v>
-      </c>
       <c r="AJ15" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
         <v>121</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="n">
+        <v>40.343974</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-74.656639</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40.349467</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-74.667281</v>
+      </c>
+      <c r="I16" t="n">
+        <v>40.339448</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-74.646367</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.36078431372549</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.17515960232127</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.435294117647059</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.15533061077335</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.368627450980392</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.151963265609189</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.358543282407924</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.203314677689189</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.525274304480216</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.705015402897754</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4336226624657</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.25855227141954</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.5349709652057</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.698117525176316</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.366417251664178</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.270016072657327</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.528691647663216</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.705629203040954</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.335779023807335</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.32488647853663</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.221033183196985</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.11830131445905</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="AJ16" t="s">
         <v>123</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" t="n">
-        <v>40.342717</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-74.650305</v>
-      </c>
-      <c r="G16" t="n">
-        <v>40.348189</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-74.660791</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40.33804</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-74.639794</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.317647058823529</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.169709864689101</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.148531536935067</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.32156862745098</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.138730638706018</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.292485254009982</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.170953388221756</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.45861257162221</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.653141707058603</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.381564529542702</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.227219813435469</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.494421844158163</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.640496481013311</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.309013968191812</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.237773962004343</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.436045381692298</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.630067369677396</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.322654655758801</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.282461623310966</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.257404173177682</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0.137479547752551</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
-      </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E17" t="n">
-        <v>40.334348</v>
+        <v>40.342717</v>
       </c>
       <c r="F17" t="n">
-        <v>-74.647146</v>
+        <v>-74.650305</v>
       </c>
       <c r="G17" t="n">
-        <v>40.339777</v>
+        <v>40.348189</v>
       </c>
       <c r="H17" t="n">
-        <v>-74.657633</v>
+        <v>-74.660791</v>
       </c>
       <c r="I17" t="n">
-        <v>40.329822</v>
+        <v>40.33804</v>
       </c>
       <c r="J17" t="n">
-        <v>-74.636555</v>
+        <v>-74.639794</v>
       </c>
       <c r="K17" t="n">
-        <v>0.305882352941176</v>
+        <v>0.317647058823529</v>
       </c>
       <c r="L17" t="n">
-        <v>0.171906193075733</v>
+        <v>0.169709864689101</v>
       </c>
       <c r="M17" t="n">
         <v>0.4</v>
       </c>
       <c r="N17" t="n">
+        <v>0.148531536935067</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.32156862745098</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.138730638706018</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.292539353667349</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.170990069122448</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.458628554716436</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.653141707058603</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.38161810392205</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.227277667315657</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.494429802666568</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.640496481013311</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.309045869514926</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.237795743333922</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.436059925584659</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.630067369677396</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.322509421821859</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.282656494163066</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.257354536262524</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.137479547752551</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40.345588</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-74.654241</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40.351254</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-74.664658</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40.341234</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-74.644531</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.376470588235294</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.179252263829568</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.447058823529412</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.158247083565364</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.384313725490196</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.155814330813138</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.35887760094274</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.203343729869588</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.53524837089521</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.708196479734466</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.432627021301034</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.255824086239108</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.538144906887593</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.702090147465287</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.371118017178743</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.274422288621221</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.539277201320732</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.710218166414643</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.338928210313448</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.297141281367773</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.231348469528449</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.13258203879033</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40.334348</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-74.647146</v>
+      </c>
+      <c r="G19" t="n">
+        <v>40.339777</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-74.657633</v>
+      </c>
+      <c r="I19" t="n">
+        <v>40.329822</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-74.636555</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.305882352941176</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.171906193075733</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.147968122912027</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O19" t="n">
         <v>0.313725490196078</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P19" t="n">
         <v>0.136295469367197</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q19" t="n">
         <v>0.17302914627532</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R19" t="n">
         <v>0.291492232767294</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S19" t="n">
         <v>0.462848116278828</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T19" t="n">
         <v>0.655632176030561</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U19" t="n">
         <v>0.238589797195482</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V19" t="n">
         <v>0.389570586544744</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W19" t="n">
         <v>0.500561271788249</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X19" t="n">
         <v>0.642023248312885</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y19" t="n">
         <v>0.239815844608889</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z19" t="n">
         <v>0.307033922557406</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA19" t="n">
         <v>0.430912748478509</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB19" t="n">
         <v>0.6264441264314</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC19" t="n">
         <v>0.319413549039434</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD19" t="n">
         <v>0.296385697214818</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE19" t="n">
         <v>0.251655483040721</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF19" t="n">
         <v>0.132545270705028</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AG19" t="s">
         <v>47</v>
       </c>
-      <c r="AH17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>89</v>
+      <c r="AH19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2689,10 +2924,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
@@ -2700,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
@@ -2708,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
@@ -2716,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -2724,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -2732,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
@@ -2740,7 +2975,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
@@ -2748,7 +2983,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -2756,7 +2991,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10">
@@ -2764,7 +2999,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2772,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
@@ -2780,7 +3015,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -2788,7 +3023,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -2796,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -2804,7 +3039,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2812,7 +3047,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -2820,7 +3055,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2828,7 +3063,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -2836,7 +3071,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -2844,7 +3079,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -2852,7 +3087,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -2860,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
@@ -2868,7 +3103,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24">
@@ -2876,7 +3111,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -2884,7 +3119,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26">
@@ -2892,7 +3127,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27">
@@ -2900,7 +3135,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -2908,7 +3143,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +3151,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
@@ -2924,7 +3159,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31">
@@ -2932,7 +3167,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32">
@@ -2940,7 +3175,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33">
@@ -2948,7 +3183,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34">
@@ -2956,7 +3191,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
@@ -2964,7 +3199,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -2972,7 +3207,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
@@ -2980,7 +3215,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/satelliteData/satRgbFinal4_1000ft.xlsx
+++ b/datasets/satelliteData/satRgbFinal4_1000ft.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">sat_label</t>
   </si>
@@ -303,15 +303,24 @@
     <t xml:space="preserve">gray63</t>
   </si>
   <si>
-    <t xml:space="preserve">preserveMtRose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose.png</t>
+    <t xml:space="preserve">preserveMtRose1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/preserveMtRose1000.png</t>
   </si>
   <si>
     <t xml:space="preserve">Mt Rose Preserve</t>
   </si>
   <si>
+    <t xml:space="preserve">gray9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darkolivegreen4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray58</t>
+  </si>
+  <si>
     <t xml:space="preserve">preserveStonyOctagon1000</t>
   </si>
   <si>
@@ -387,16 +396,22 @@
     <t xml:space="preserve">gray70</t>
   </si>
   <si>
-    <t xml:space="preserve">univForestSwTrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univForestSwTrack.png</t>
+    <t xml:space="preserve">univForestSwTrack1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univForestSwTrack1000.png</t>
   </si>
   <si>
     <t xml:space="preserve">Forest; SW Track and Jadwin Gym; Princeton Univ</t>
   </si>
   <si>
-    <t xml:space="preserve">gray33</t>
+    <t xml:space="preserve">gray38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">honeydew4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray68</t>
   </si>
   <si>
     <t xml:space="preserve">univGuyotHall1000</t>
@@ -408,16 +423,37 @@
     <t xml:space="preserve">Guyot Hall; Princeton Univ</t>
   </si>
   <si>
-    <t xml:space="preserve">univSolarFarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univSolarFarm.png</t>
+    <t xml:space="preserve">univSolarFarm1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/univSolarFarm1000.png</t>
   </si>
   <si>
     <t xml:space="preserve">Solar Sheep Farm; Princeton Univ</t>
   </si>
   <si>
     <t xml:space="preserve">gray47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbanLibrary1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/urbanLibrary1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton Public Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray69</t>
   </si>
   <si>
     <t xml:space="preserve">variableName</t>
@@ -978,52 +1014,52 @@
         <v>0.111498233810753</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.371112290013538</v>
+        <v>0.371134230717642</v>
       </c>
       <c r="R2" t="n">
-        <v>0.211953987542483</v>
+        <v>0.211994578255969</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0937391986598453</v>
+        <v>0.0937640854851558</v>
       </c>
       <c r="T2" t="n">
-        <v>0.645686962943453</v>
+        <v>0.645704896483694</v>
       </c>
       <c r="U2" t="n">
-        <v>0.46745935946474</v>
+        <v>0.467474486192594</v>
       </c>
       <c r="V2" t="n">
-        <v>0.319171259139525</v>
+        <v>0.319220157861645</v>
       </c>
       <c r="W2" t="n">
-        <v>0.159711860315882</v>
+        <v>0.159749711620043</v>
       </c>
       <c r="X2" t="n">
-        <v>0.623203344536032</v>
+        <v>0.62321305728996</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.280663586500215</v>
+        <v>0.28067583353309</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.19072167620607</v>
+        <v>0.190744124837493</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.118730314352929</v>
+        <v>0.118748189053598</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.54474368362091</v>
+        <v>0.544767788679717</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.32798786653185</v>
+        <v>0.327932714403897</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.325426969390569</v>
+        <v>0.325357110028495</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.288987958452064</v>
+        <v>0.289122161963416</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0575972056255171</v>
+        <v>0.0575880136041916</v>
       </c>
       <c r="AG2" t="s">
         <v>40</v>
@@ -1308,49 +1344,49 @@
         <v>0.118952315386921</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.20245186744303</v>
+        <v>0.20245043394101</v>
       </c>
       <c r="R5" t="n">
         <v>0.0889556717810136</v>
       </c>
       <c r="S5" t="n">
-        <v>0.370822504638567</v>
+        <v>0.370820878147894</v>
       </c>
       <c r="T5" t="n">
         <v>0.601460656484676</v>
       </c>
       <c r="U5" t="n">
-        <v>0.302815078022251</v>
+        <v>0.30281356175089</v>
       </c>
       <c r="V5" t="n">
         <v>0.141835214683868</v>
       </c>
       <c r="W5" t="n">
-        <v>0.455076914223298</v>
+        <v>0.455075771053023</v>
       </c>
       <c r="X5" t="n">
         <v>0.568828950661219</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.174362014383751</v>
+        <v>0.174361865140172</v>
       </c>
       <c r="Z5" t="n">
         <v>0.098880983205827</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.270076666647679</v>
+        <v>0.27007475010027</v>
       </c>
       <c r="AB5" t="n">
         <v>0.526673141897817</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.367765419615774</v>
+        <v>0.367759904402978</v>
       </c>
       <c r="AD5" t="n">
         <v>0.318749885099733</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.246792903759537</v>
+        <v>0.246798418972332</v>
       </c>
       <c r="AF5" t="n">
         <v>0.0666917915249563</v>
@@ -1950,93 +1986,93 @@
         <v>-74.727101</v>
       </c>
       <c r="K11" t="n">
-        <v>0.188235294117647</v>
+        <v>0.192156862745098</v>
       </c>
       <c r="L11" t="n">
-        <v>0.132743122622197</v>
+        <v>0.148559128422397</v>
       </c>
       <c r="M11" t="n">
-        <v>0.286274509803922</v>
+        <v>0.290196078431373</v>
       </c>
       <c r="N11" t="n">
-        <v>0.132355216070425</v>
+        <v>0.149510316153667</v>
       </c>
       <c r="O11" t="n">
-        <v>0.168627450980392</v>
+        <v>0.16078431372549</v>
       </c>
       <c r="P11" t="n">
-        <v>0.105567815528838</v>
+        <v>0.120477491168351</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1940861429368</v>
+        <v>0.195428507057588</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0941360439372104</v>
+        <v>0.0829151030312032</v>
       </c>
       <c r="S11" t="n">
-        <v>0.35784947516238</v>
+        <v>0.380678830937402</v>
       </c>
       <c r="T11" t="n">
-        <v>0.561962024880248</v>
+        <v>0.615689869730436</v>
       </c>
       <c r="U11" t="n">
-        <v>0.292419391378777</v>
+        <v>0.294208490852052</v>
       </c>
       <c r="V11" t="n">
-        <v>0.145948258779503</v>
+        <v>0.125538984393519</v>
       </c>
       <c r="W11" t="n">
-        <v>0.440513299223312</v>
+        <v>0.455161032511815</v>
       </c>
       <c r="X11" t="n">
-        <v>0.540075123195144</v>
+        <v>0.585022637633624</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.17056172175429</v>
+        <v>0.163539419795053</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.088518439690266</v>
+        <v>0.0712478774071143</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.27057007385756</v>
+        <v>0.27669306594194</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.483013749612333</v>
+        <v>0.554173683475157</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.420380549682875</v>
+        <v>0.398073352330177</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.294696203695193</v>
+        <v>0.299233385421454</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.232620645279897</v>
+        <v>0.258577075098814</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0523026013420351</v>
+        <v>0.0441161871495542</v>
       </c>
       <c r="AG11" t="s">
         <v>47</v>
       </c>
       <c r="AH11" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="AI11" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>92</v>
@@ -2140,16 +2176,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E13" t="n">
         <v>40.38491</v>
@@ -2236,7 +2272,7 @@
         <v>0.208506296534608</v>
       </c>
       <c r="AG13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AH13" t="s">
         <v>56</v>
@@ -2250,16 +2286,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
         <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
       </c>
       <c r="E14" t="n">
         <v>40.328281</v>
@@ -2298,78 +2334,78 @@
         <v>0.150453112360651</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.462314657084228</v>
+        <v>0.462950508940274</v>
       </c>
       <c r="R14" t="n">
-        <v>0.280219230273096</v>
+        <v>0.281082899909653</v>
       </c>
       <c r="S14" t="n">
-        <v>0.11037347224444</v>
+        <v>0.110685551703696</v>
       </c>
       <c r="T14" t="n">
-        <v>0.631129576270117</v>
+        <v>0.631634873610581</v>
       </c>
       <c r="U14" t="n">
-        <v>0.464121555259979</v>
+        <v>0.464485779537104</v>
       </c>
       <c r="V14" t="n">
-        <v>0.359403248594048</v>
+        <v>0.360031670451495</v>
       </c>
       <c r="W14" t="n">
-        <v>0.186484222956837</v>
+        <v>0.186868500466639</v>
       </c>
       <c r="X14" t="n">
-        <v>0.620220119067551</v>
+        <v>0.620792661884389</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.379394115319803</v>
+        <v>0.380036630920949</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.250326296078251</v>
+        <v>0.250823724757652</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.149012279018443</v>
+        <v>0.149205125953322</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.604175320204976</v>
+        <v>0.604837670921773</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.314427796672488</v>
+        <v>0.313561908263627</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.294815699972424</v>
+        <v>0.295247724974722</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.278389557863774</v>
+        <v>0.27952753010387</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.112366945491314</v>
+        <v>0.111662836657781</v>
       </c>
       <c r="AG14" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AH14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E15" t="n">
         <v>40.321026</v>
@@ -2408,52 +2444,52 @@
         <v>0.13545251461225</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.20737078805117</v>
+        <v>0.206444680524838</v>
       </c>
       <c r="R15" t="n">
-        <v>0.391087004619425</v>
+        <v>0.390046191918003</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0841149590697816</v>
+        <v>0.0836848169028731</v>
       </c>
       <c r="T15" t="n">
-        <v>0.581359305045626</v>
+        <v>0.580933795121053</v>
       </c>
       <c r="U15" t="n">
-        <v>0.301789106646768</v>
+        <v>0.300862874212152</v>
       </c>
       <c r="V15" t="n">
-        <v>0.438322722436742</v>
+        <v>0.437777413561041</v>
       </c>
       <c r="W15" t="n">
-        <v>0.158961548114639</v>
+        <v>0.158393372657287</v>
       </c>
       <c r="X15" t="n">
-        <v>0.573688618737303</v>
+        <v>0.573260888704429</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.218103124095806</v>
+        <v>0.217562306728383</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.336845663020325</v>
+        <v>0.336048516805769</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.143980108602609</v>
+        <v>0.143705626233839</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.547984255399124</v>
+        <v>0.547460035970806</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.344224653001195</v>
+        <v>0.343959922787021</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.274203511352146</v>
+        <v>0.275801084658516</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.258955786377424</v>
+        <v>0.256997885835095</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.122616049269234</v>
+        <v>0.123241106719368</v>
       </c>
       <c r="AG15" t="s">
         <v>41</v>
@@ -2462,7 +2498,7 @@
         <v>73</v>
       </c>
       <c r="AI15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="s">
         <v>69</v>
@@ -2470,16 +2506,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
         <v>40.343974</v>
@@ -2572,24 +2608,24 @@
         <v>41</v>
       </c>
       <c r="AI16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AJ16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
         <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" t="s">
-        <v>121</v>
       </c>
       <c r="E17" t="n">
         <v>40.342717</v>
@@ -2610,96 +2646,96 @@
         <v>-74.639794</v>
       </c>
       <c r="K17" t="n">
-        <v>0.317647058823529</v>
+        <v>0.364705882352941</v>
       </c>
       <c r="L17" t="n">
-        <v>0.169709864689101</v>
+        <v>0.174475741925264</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4</v>
+        <v>0.450980392156863</v>
       </c>
       <c r="N17" t="n">
-        <v>0.148531536935067</v>
+        <v>0.154736737354603</v>
       </c>
       <c r="O17" t="n">
-        <v>0.32156862745098</v>
+        <v>0.364705882352941</v>
       </c>
       <c r="P17" t="n">
-        <v>0.138730638706018</v>
+        <v>0.145091994702422</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.292539353667349</v>
+        <v>0.344012641918886</v>
       </c>
       <c r="R17" t="n">
-        <v>0.170990069122448</v>
+        <v>0.190309610674182</v>
       </c>
       <c r="S17" t="n">
-        <v>0.458628554716436</v>
+        <v>0.515148813856624</v>
       </c>
       <c r="T17" t="n">
-        <v>0.653141707058603</v>
+        <v>0.687614098219969</v>
       </c>
       <c r="U17" t="n">
-        <v>0.38161810392205</v>
+        <v>0.432651044475617</v>
       </c>
       <c r="V17" t="n">
-        <v>0.227277667315657</v>
+        <v>0.241910063541682</v>
       </c>
       <c r="W17" t="n">
-        <v>0.494429802666568</v>
+        <v>0.532293192492371</v>
       </c>
       <c r="X17" t="n">
-        <v>0.640496481013311</v>
+        <v>0.677823725456559</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.309045869514926</v>
+        <v>0.348394033282091</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.237795743333922</v>
+        <v>0.257001506728092</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.436059925584659</v>
+        <v>0.487912493259855</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.630067369677396</v>
+        <v>0.68110828614955</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.322509421821859</v>
+        <v>0.33165180623219</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.282656494163066</v>
+        <v>0.297185403070135</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.257354536262524</v>
+        <v>0.253300854857983</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.137479547752551</v>
+        <v>0.117861935839691</v>
       </c>
       <c r="AG17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AH17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="AJ17" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E18" t="n">
         <v>40.345588</v>
@@ -2800,16 +2836,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E19" t="n">
         <v>40.334348</v>
@@ -2830,82 +2866,192 @@
         <v>-74.636555</v>
       </c>
       <c r="K19" t="n">
-        <v>0.305882352941176</v>
+        <v>0.345098039215686</v>
       </c>
       <c r="L19" t="n">
-        <v>0.171906193075733</v>
+        <v>0.187470744587476</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4</v>
+        <v>0.443137254901961</v>
       </c>
       <c r="N19" t="n">
-        <v>0.147968122912027</v>
+        <v>0.157282955289314</v>
       </c>
       <c r="O19" t="n">
-        <v>0.313725490196078</v>
+        <v>0.337254901960784</v>
       </c>
       <c r="P19" t="n">
-        <v>0.136295469367197</v>
+        <v>0.136755445271293</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.17302914627532</v>
+        <v>0.281762610210906</v>
       </c>
       <c r="R19" t="n">
-        <v>0.291492232767294</v>
+        <v>0.47168677079033</v>
       </c>
       <c r="S19" t="n">
-        <v>0.462848116278828</v>
+        <v>0.161156313548789</v>
       </c>
       <c r="T19" t="n">
-        <v>0.655632176030561</v>
+        <v>0.672771220419933</v>
       </c>
       <c r="U19" t="n">
-        <v>0.238589797195482</v>
+        <v>0.392423279320589</v>
       </c>
       <c r="V19" t="n">
-        <v>0.389570586544744</v>
+        <v>0.512962819244113</v>
       </c>
       <c r="W19" t="n">
-        <v>0.500561271788249</v>
+        <v>0.21956786741085</v>
       </c>
       <c r="X19" t="n">
-        <v>0.642023248312885</v>
+        <v>0.652060028354303</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.239815844608889</v>
+        <v>0.301986974417739</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.307033922557406</v>
+        <v>0.425045152390682</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.430912748478509</v>
+        <v>0.237267684167957</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.6264441264314</v>
+        <v>0.605873809086729</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.319413549039434</v>
+        <v>0.311333762294329</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.296385697214818</v>
+        <v>0.280079051383399</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.251655483040721</v>
+        <v>0.230120415479364</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.132545270705028</v>
+        <v>0.178466770842908</v>
       </c>
       <c r="AG19" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="AH19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AI19" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="AJ19" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40.35151</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-74.660325</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40.363008</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-74.68288</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40.3416</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-74.637668</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.372549019607843</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.173446605606153</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.427450980392157</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.151184535363136</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.384313725490196</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.153180724236514</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.343994694593229</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.201209763830925</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.519629791943684</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.690415870912438</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.408496893229321</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.256883556735774</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.520566614190521</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.685633473875193</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.361827564607636</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.272985472455147</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.527814672260072</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.696571028406205</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.342873425866348</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.268123908447468</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.247498850997334</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.14150381468885</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2924,10 +3070,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
@@ -2935,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
@@ -2943,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -2951,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -2959,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -2967,7 +3113,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
@@ -2975,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -2983,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -2991,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
@@ -2999,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
@@ -3007,7 +3153,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
@@ -3015,7 +3161,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -3023,7 +3169,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -3031,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
@@ -3039,7 +3185,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -3047,7 +3193,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -3055,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -3063,7 +3209,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -3071,7 +3217,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -3079,7 +3225,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -3087,7 +3233,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -3095,7 +3241,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
@@ -3103,7 +3249,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
@@ -3111,7 +3257,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
@@ -3119,7 +3265,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
@@ -3127,7 +3273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27">
@@ -3135,7 +3281,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
@@ -3143,7 +3289,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
@@ -3151,7 +3297,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30">
@@ -3159,7 +3305,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
@@ -3167,7 +3313,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
@@ -3175,7 +3321,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -3183,7 +3329,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34">
@@ -3191,7 +3337,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
@@ -3199,7 +3345,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36">
@@ -3207,7 +3353,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37">
@@ -3215,7 +3361,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/satelliteData/satRgbFinal4_1000ft.xlsx
+++ b/datasets/satelliteData/satRgbFinal4_1000ft.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t xml:space="preserve">sat_label</t>
   </si>
@@ -147,6 +147,24 @@
     <t xml:space="preserve">gray60</t>
   </si>
   <si>
+    <t xml:space="preserve">farmCherryCentered1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Imageomics/Andromeda/raw/main/datasets/satelliteData/farmCherryCentered1000.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centered Cherry Orchid Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gray37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightyellow4</t>
+  </si>
+  <si>
     <t xml:space="preserve">farmDblBrook1000</t>
   </si>
   <si>
@@ -165,9 +183,6 @@
     <t xml:space="preserve">gray10</t>
   </si>
   <si>
-    <t xml:space="preserve">lightyellow4</t>
-  </si>
-  <si>
     <t xml:space="preserve">farmLawrenceville1000</t>
   </si>
   <si>
@@ -375,9 +390,6 @@
     <t xml:space="preserve">Toll Gate Grammer</t>
   </si>
   <si>
-    <t xml:space="preserve">gray13</t>
-  </si>
-  <si>
     <t xml:space="preserve">univArtMuseum1000</t>
   </si>
   <si>
@@ -405,13 +417,10 @@
     <t xml:space="preserve">Forest; SW Track and Jadwin Gym; Princeton Univ</t>
   </si>
   <si>
-    <t xml:space="preserve">gray38</t>
-  </si>
-  <si>
     <t xml:space="preserve">honeydew4</t>
   </si>
   <si>
-    <t xml:space="preserve">gray68</t>
+    <t xml:space="preserve">gray69</t>
   </si>
   <si>
     <t xml:space="preserve">univGuyotHall1000</t>
@@ -447,13 +456,7 @@
     <t xml:space="preserve">urban</t>
   </si>
   <si>
-    <t xml:space="preserve">gray37</t>
-  </si>
-  <si>
     <t xml:space="preserve">gray52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gray69</t>
   </si>
   <si>
     <t xml:space="preserve">variableName</t>
@@ -1014,52 +1017,52 @@
         <v>0.111498233810753</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.371134230717642</v>
+        <v>0.371112290013538</v>
       </c>
       <c r="R2" t="n">
-        <v>0.211994578255969</v>
+        <v>0.211953987542483</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0937640854851558</v>
+        <v>0.0937391986598453</v>
       </c>
       <c r="T2" t="n">
-        <v>0.645704896483694</v>
+        <v>0.645686962943453</v>
       </c>
       <c r="U2" t="n">
-        <v>0.467474486192594</v>
+        <v>0.46745935946474</v>
       </c>
       <c r="V2" t="n">
-        <v>0.319220157861645</v>
+        <v>0.319171259139525</v>
       </c>
       <c r="W2" t="n">
-        <v>0.159749711620043</v>
+        <v>0.159711860315882</v>
       </c>
       <c r="X2" t="n">
-        <v>0.62321305728996</v>
+        <v>0.623203344536032</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.28067583353309</v>
+        <v>0.280663586500215</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.190744124837493</v>
+        <v>0.19072167620607</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.118748189053598</v>
+        <v>0.118730314352929</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.544767788679717</v>
+        <v>0.54474368362091</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.327932714403897</v>
+        <v>0.32798786653185</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.325357110028495</v>
+        <v>0.325426969390569</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.289122161963416</v>
+        <v>0.288987958452064</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0575880136041916</v>
+        <v>0.0575972056255171</v>
       </c>
       <c r="AG2" t="s">
         <v>40</v>
@@ -1088,201 +1091,201 @@
         <v>39</v>
       </c>
       <c r="E3" t="n">
-        <v>40.354852</v>
+        <v>40.310457</v>
       </c>
       <c r="F3" t="n">
-        <v>-74.741672</v>
+        <v>-74.716234</v>
       </c>
       <c r="G3" t="n">
-        <v>40.360316</v>
+        <v>40.31654</v>
       </c>
       <c r="H3" t="n">
-        <v>-74.752083</v>
+        <v>-74.73032</v>
       </c>
       <c r="I3" t="n">
-        <v>40.350356</v>
+        <v>40.30519</v>
       </c>
       <c r="J3" t="n">
-        <v>-74.731069</v>
+        <v>-74.702069</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2</v>
+        <v>0.211764705882353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.145116077878757</v>
+        <v>0.148525732041286</v>
       </c>
       <c r="M3" t="n">
-        <v>0.301960784313725</v>
+        <v>0.305882352941176</v>
       </c>
       <c r="N3" t="n">
-        <v>0.144780212220938</v>
+        <v>0.140373235694098</v>
       </c>
       <c r="O3" t="n">
-        <v>0.176470588235294</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="P3" t="n">
-        <v>0.107217378023954</v>
+        <v>0.102530261803923</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.194778457848582</v>
+        <v>0.208793950817531</v>
       </c>
       <c r="R3" t="n">
-        <v>0.36561446039339</v>
+        <v>0.0893908619470581</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0876795902745724</v>
+        <v>0.367376972366593</v>
       </c>
       <c r="T3" t="n">
-        <v>0.58303567006057</v>
+        <v>0.576057598802114</v>
       </c>
       <c r="U3" t="n">
-        <v>0.293050214923141</v>
+        <v>0.300201739576075</v>
       </c>
       <c r="V3" t="n">
-        <v>0.450517059136253</v>
+        <v>0.148371789690617</v>
       </c>
       <c r="W3" t="n">
-        <v>0.133086063336505</v>
+        <v>0.441981332579418</v>
       </c>
       <c r="X3" t="n">
-        <v>0.550596988067766</v>
+        <v>0.55346504237719</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.170755209550072</v>
+        <v>0.214001765742961</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.266253469681342</v>
+        <v>0.141269942555812</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0926098103057637</v>
+        <v>0.300629483400256</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.486256327107952</v>
+        <v>0.493583405555627</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.37032815516132</v>
+        <v>0.345498667156908</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.288169868554095</v>
+        <v>0.31013696111775</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.284009559702179</v>
+        <v>0.273490210497288</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0574924165824065</v>
+        <v>0.0708741612280541</v>
       </c>
       <c r="AG3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" t="s">
         <v>47</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>48</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>49</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>40.318704</v>
+        <v>40.354852</v>
       </c>
       <c r="F4" t="n">
-        <v>-74.744964</v>
+        <v>-74.741672</v>
       </c>
       <c r="G4" t="n">
-        <v>40.323855</v>
+        <v>40.360316</v>
       </c>
       <c r="H4" t="n">
-        <v>-74.755453</v>
+        <v>-74.752083</v>
       </c>
       <c r="I4" t="n">
-        <v>40.314606</v>
+        <v>40.350356</v>
       </c>
       <c r="J4" t="n">
-        <v>-74.734452</v>
+        <v>-74.731069</v>
       </c>
       <c r="K4" t="n">
-        <v>0.274509803921569</v>
+        <v>0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.11704828107304</v>
+        <v>0.145116077878757</v>
       </c>
       <c r="M4" t="n">
-        <v>0.403921568627451</v>
+        <v>0.301960784313725</v>
       </c>
       <c r="N4" t="n">
-        <v>0.124529551293446</v>
+        <v>0.144780212220938</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="P4" t="n">
-        <v>0.077674117576471</v>
+        <v>0.107217378023954</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.308261989666068</v>
+        <v>0.194778457848582</v>
       </c>
       <c r="R4" t="n">
-        <v>0.172870949557514</v>
+        <v>0.36561446039339</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0797275431299152</v>
+        <v>0.0876795902745724</v>
       </c>
       <c r="T4" t="n">
-        <v>0.441826476600981</v>
+        <v>0.58303567006057</v>
       </c>
       <c r="U4" t="n">
-        <v>0.435267243632586</v>
+        <v>0.293050214923141</v>
       </c>
       <c r="V4" t="n">
-        <v>0.293849637865717</v>
+        <v>0.450517059136253</v>
       </c>
       <c r="W4" t="n">
-        <v>0.147870535795477</v>
+        <v>0.133086063336505</v>
       </c>
       <c r="X4" t="n">
-        <v>0.511558131906394</v>
+        <v>0.550596988067766</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.223112931464936</v>
+        <v>0.170755209550072</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.165190637632139</v>
+        <v>0.266253469681342</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.103096044292542</v>
+        <v>0.0926098103057637</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.351087991951111</v>
+        <v>0.486256327107952</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.484759628642338</v>
+        <v>0.37032815516132</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.244143763213531</v>
+        <v>0.288169868554095</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.156589760088243</v>
+        <v>0.284009559702179</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.114506848055887</v>
+        <v>0.0574924165824065</v>
       </c>
       <c r="AG4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AH4" t="s">
         <v>54</v>
@@ -1291,114 +1294,114 @@
         <v>55</v>
       </c>
       <c r="AJ4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>40.352764</v>
+        <v>40.318704</v>
       </c>
       <c r="F5" t="n">
-        <v>-74.719865</v>
+        <v>-74.744964</v>
       </c>
       <c r="G5" t="n">
-        <v>40.357918</v>
+        <v>40.323855</v>
       </c>
       <c r="H5" t="n">
-        <v>-74.730329</v>
+        <v>-74.755453</v>
       </c>
       <c r="I5" t="n">
-        <v>40.347739</v>
+        <v>40.314606</v>
       </c>
       <c r="J5" t="n">
-        <v>-74.70929</v>
+        <v>-74.734452</v>
       </c>
       <c r="K5" t="n">
+        <v>0.274509803921569</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.11704828107304</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.403921568627451</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.124529551293446</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.152188138732691</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.298039215686275</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.148048434219654</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.172549019607843</v>
-      </c>
       <c r="P5" t="n">
-        <v>0.118952315386921</v>
+        <v>0.077674117576471</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.20245043394101</v>
+        <v>0.308413362882702</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0889556717810136</v>
+        <v>0.172998357094129</v>
       </c>
       <c r="S5" t="n">
-        <v>0.370820878147894</v>
+        <v>0.0797984700936533</v>
       </c>
       <c r="T5" t="n">
-        <v>0.601460656484676</v>
+        <v>0.442318776619727</v>
       </c>
       <c r="U5" t="n">
-        <v>0.30281356175089</v>
+        <v>0.43540730852985</v>
       </c>
       <c r="V5" t="n">
-        <v>0.141835214683868</v>
+        <v>0.294013454142789</v>
       </c>
       <c r="W5" t="n">
-        <v>0.455075771053023</v>
+        <v>0.147992744849831</v>
       </c>
       <c r="X5" t="n">
-        <v>0.568828950661219</v>
+        <v>0.511676631329052</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.174361865140172</v>
+        <v>0.223229966242547</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.098880983205827</v>
+        <v>0.165260003250676</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.27007475010027</v>
+        <v>0.103147100651878</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.526673141897817</v>
+        <v>0.351568950834873</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.367759904402978</v>
+        <v>0.485274381836566</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.318749885099733</v>
+        <v>0.244182369703098</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.246798418972332</v>
+        <v>0.156845298281092</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0666917915249563</v>
+        <v>0.113697950179244</v>
       </c>
       <c r="AG5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" t="s">
         <v>60</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>48</v>
       </c>
       <c r="AJ5" t="s">
         <v>61</v>
@@ -1415,873 +1418,873 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40.352764</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-74.719865</v>
+      </c>
+      <c r="G6" t="n">
+        <v>40.357918</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-74.730329</v>
+      </c>
+      <c r="I6" t="n">
+        <v>40.347739</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-74.70929</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.152188138732691</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.298039215686275</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.148048434219654</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.172549019607843</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.118952315386921</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.20245043394101</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0889556717810136</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.370820878147894</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.601460656484676</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.30281356175089</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.141835214683868</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.455075771053023</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.568828950661219</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.174361865140172</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.098880983205827</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.27007475010027</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.526673141897817</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.367759904402978</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.318749885099733</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.246798418972332</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.0666917915249563</v>
+      </c>
+      <c r="AG6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="n">
-        <v>40.365934</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-74.672103</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40.370705</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-74.682579</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40.361313</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-74.661517</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.243137254901961</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.137369091870593</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.345098039215686</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.12848117707551</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.266666666666667</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.102876794735697</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.242348297139589</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.13909134308934</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.388238591680751</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.587569433037663</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.344898996886331</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.207187616506337</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.472321454445009</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.591716633836106</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.26909424999529</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.205515232040173</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.351764745852817</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.542337398192833</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.422875264270613</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.275753286147624</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.216442687747036</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.0849287618347275</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>66</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="n">
+        <v>40.365934</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-74.672103</v>
+      </c>
+      <c r="G7" t="n">
+        <v>40.370705</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-74.682579</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40.361313</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-74.661517</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.243137254901961</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.137369091870593</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.345098039215686</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.12848117707551</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.102876794735697</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.242348297139589</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.13909134308934</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.388238591680751</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.587569433037663</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.344898996886331</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.207187616506337</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.472321454445009</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.591716633836106</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.26909424999529</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.205515232040173</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.351764745852817</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.542337398192833</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.422875264270613</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.275753286147624</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.216442687747036</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.0849287618347275</v>
+      </c>
+      <c r="AG7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="AH7" t="s">
         <v>72</v>
       </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40.347059</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-74.656342</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40.351853</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-74.666842</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40.342372</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-74.645788</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.380392156862745</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.177879128003346</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.443137254901961</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.156768962565524</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.388235294117647</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.155319085943343</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.359539872477676</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.208511072196725</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.53573358076087</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.708681185531689</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.427633509858399</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.260414452146218</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.53699685130856</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.703043482841826</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.374355327095815</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.279771935125495</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.54229150314656</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.711784619274918</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.336793822961669</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.288826178876735</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.237529184667708</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.136850813493887</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AI7" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>74</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40.347059</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-74.656342</v>
+      </c>
+      <c r="G8" t="n">
+        <v>40.351853</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-74.666842</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40.342372</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-74.645788</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.380392156862745</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.177879128003346</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.443137254901961</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.156768962565524</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.388235294117647</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.155319085943343</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.359592255656928</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.208527240019818</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.535827519569527</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.708763292307746</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.427666932165352</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.260437520814392</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.537072108880704</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.703131564743488</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.374395225346952</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.279777367760303</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.542388859424892</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.71187600411655</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.336848975089622</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.288892361430279</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.237549407114624</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.136709256365475</v>
+      </c>
+      <c r="AG8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
+      <c r="AH8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="AI8" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="n">
-        <v>40.364166</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-74.783442</v>
-      </c>
-      <c r="G8" t="n">
-        <v>40.369013</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-74.793954</v>
-      </c>
-      <c r="I8" t="n">
-        <v>40.359555</v>
-      </c>
-      <c r="J8" t="n">
-        <v>-74.772848</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.266666666666667</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.159669547486796</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.372549019607843</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.139312740883059</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.247058823529412</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.112016063456313</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.227714464149181</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.409178636090816</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.103363061323933</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.574045480875973</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.331428002282734</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.473331559666379</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.177566357614519</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.564702840370364</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.223708089715851</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.321877933252652</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.139596536874562</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.483127805339013</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.334773416674327</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.318672672120599</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.235164996782793</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.111388914422281</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
         <v>81</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
       <c r="E9" t="n">
-        <v>40.338103</v>
+        <v>40.364166</v>
       </c>
       <c r="F9" t="n">
-        <v>-74.661537</v>
+        <v>-74.783442</v>
       </c>
       <c r="G9" t="n">
-        <v>40.342896</v>
+        <v>40.369013</v>
       </c>
       <c r="H9" t="n">
-        <v>-74.672036</v>
+        <v>-74.793954</v>
       </c>
       <c r="I9" t="n">
-        <v>40.333395</v>
+        <v>40.359555</v>
       </c>
       <c r="J9" t="n">
-        <v>-74.650956</v>
+        <v>-74.772848</v>
       </c>
       <c r="K9" t="n">
-        <v>0.309803921568627</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>0.158266182862447</v>
+        <v>0.159669547486796</v>
       </c>
       <c r="M9" t="n">
-        <v>0.403921568627451</v>
+        <v>0.372549019607843</v>
       </c>
       <c r="N9" t="n">
-        <v>0.142873514645038</v>
+        <v>0.139312740883059</v>
       </c>
       <c r="O9" t="n">
-        <v>0.317647058823529</v>
+        <v>0.247058823529412</v>
       </c>
       <c r="P9" t="n">
-        <v>0.133344367319684</v>
+        <v>0.112016063456313</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.274495943709275</v>
+        <v>0.227885231849117</v>
       </c>
       <c r="R9" t="n">
-        <v>0.431410535455375</v>
+        <v>0.409234346183406</v>
       </c>
       <c r="S9" t="n">
-        <v>0.159845598537456</v>
+        <v>0.10352093653163</v>
       </c>
       <c r="T9" t="n">
-        <v>0.640959399507091</v>
+        <v>0.574056513544833</v>
       </c>
       <c r="U9" t="n">
-        <v>0.36872013596287</v>
+        <v>0.331612759923874</v>
       </c>
       <c r="V9" t="n">
-        <v>0.489762160083339</v>
+        <v>0.473365741457519</v>
       </c>
       <c r="W9" t="n">
-        <v>0.214112165054546</v>
+        <v>0.177778929414797</v>
       </c>
       <c r="X9" t="n">
-        <v>0.633031397026982</v>
+        <v>0.564712744013786</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.297933624937238</v>
+        <v>0.223808784443123</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.412709883905434</v>
+        <v>0.321913623001024</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.232957179177838</v>
+        <v>0.139710426478183</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.642745421098687</v>
+        <v>0.483139248667569</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.347462082912032</v>
+        <v>0.334313815608052</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.305561172901921</v>
+        <v>0.318514569353801</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.230932990164537</v>
+        <v>0.235799246254251</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.116043754021509</v>
+        <v>0.111372368783896</v>
       </c>
       <c r="AG9" t="s">
         <v>86</v>
       </c>
       <c r="AH9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s">
         <v>87</v>
       </c>
       <c r="AJ9" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="n">
+        <v>40.338103</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-74.661537</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.342896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-74.672036</v>
+      </c>
+      <c r="I10" t="n">
+        <v>40.333395</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-74.650956</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.309803921568627</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.158266182862447</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.403921568627451</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.142873514645038</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.317647058823529</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.133344367319684</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.274495943709275</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.431410535455375</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.159845598537456</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.640959399507091</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.36872013596287</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.489762160083339</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.214112165054546</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.633031397026982</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.297933624937238</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.412709883905434</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.232957179177838</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.642745421098687</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.347462082912032</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.305561172901921</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.230932990164537</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.116043754021509</v>
+      </c>
+      <c r="AG10" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
+      <c r="AH10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" t="n">
-        <v>40.358217</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-74.669685</v>
-      </c>
-      <c r="G10" t="n">
-        <v>40.363644</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-74.679922</v>
-      </c>
-      <c r="I10" t="n">
-        <v>40.353585</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-74.659114</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.294117647058824</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.16078118485409</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.380392156862745</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.140859137169858</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.309803921568627</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.133877472895578</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.278448446702641</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.157992388661608</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.456884065156749</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.634024170618858</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.368250155762034</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.225034734921656</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.498070259234274</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.628053764111136</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.300921875546255</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.225145585912457</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.415242051529536</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.639682830031392</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.363972791616877</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.268473205257836</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.261729938413457</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.10582406471183</v>
-      </c>
-      <c r="AG10" t="s">
+      <c r="AJ10" t="s">
         <v>93</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="n">
+        <v>40.358217</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-74.669685</v>
+      </c>
+      <c r="G11" t="n">
+        <v>40.363644</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-74.679922</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40.353585</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-74.659114</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.294117647058824</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.16078118485409</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.380392156862745</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.140859137169858</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.309803921568627</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.133877472895578</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.278448446702641</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.157992388661608</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.456884065156749</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.634024170618858</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.368250155762034</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.225034734921656</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.498070259234274</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.628053764111136</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.300921875546255</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.225145585912457</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.415242051529536</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.639682830031392</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.363972791616877</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.268473205257836</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.261729938413457</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.10582406471183</v>
+      </c>
+      <c r="AG11" t="s">
         <v>98</v>
       </c>
-      <c r="D11" t="s">
+      <c r="AH11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" t="n">
-        <v>40.361706</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-74.737647</v>
-      </c>
-      <c r="G11" t="n">
-        <v>40.367158</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-74.748032</v>
-      </c>
-      <c r="I11" t="n">
-        <v>40.357133</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-74.727101</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.192156862745098</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.148559128422397</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.290196078431373</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.149510316153667</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.16078431372549</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.120477491168351</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.195428507057588</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.0829151030312032</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.380678830937402</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.615689869730436</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.294208490852052</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.125538984393519</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.455161032511815</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.585022637633624</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.163539419795053</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.0712478774071143</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.27669306594194</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0.554173683475157</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.398073352330177</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.299233385421454</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.258577075098814</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.0441161871495542</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>99</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>100</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
         <v>102</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>103</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40.361706</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-74.737647</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40.367158</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-74.748032</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40.357133</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-74.727101</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.192156862745098</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.148559128422397</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.290196078431373</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.149510316153667</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.16078431372549</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.120477491168351</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.195428507057588</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0829151030312032</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.380678830937402</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.615689869730436</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.294208490852052</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.125538984393519</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.455161032511815</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.585022637633624</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.163539419795053</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0712478774071143</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.27669306594194</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.554173683475157</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.398073352330177</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.299233385421454</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.258577075098814</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.0441161871495542</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="n">
-        <v>40.353131</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-74.719621</v>
-      </c>
-      <c r="G12" t="n">
-        <v>40.358575</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-74.730171</v>
-      </c>
-      <c r="I12" t="n">
-        <v>40.348568</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-74.709132</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.196078431372549</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.151727477082578</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.298039215686275</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.147656233231732</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.172549019607843</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.11878582045983</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.202271016082777</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.0890197138320948</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.370334551548454</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.600461227239149</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.302898770374078</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.14213370866952</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.455013445386616</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.567875344106495</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.174116989041582</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.0989141206485668</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.269907272889382</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.526042174298197</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.370322639948525</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.319696663296259</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.243408401507491</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.066572295247725</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>55</v>
-      </c>
       <c r="AI12" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E13" t="n">
-        <v>40.38491</v>
+        <v>40.353131</v>
       </c>
       <c r="F13" t="n">
-        <v>-74.75798</v>
+        <v>-74.719621</v>
       </c>
       <c r="G13" t="n">
-        <v>40.38963</v>
+        <v>40.358575</v>
       </c>
       <c r="H13" t="n">
-        <v>-74.768464</v>
+        <v>-74.730171</v>
       </c>
       <c r="I13" t="n">
-        <v>40.380318</v>
+        <v>40.348568</v>
       </c>
       <c r="J13" t="n">
-        <v>-74.747441</v>
+        <v>-74.709132</v>
       </c>
       <c r="K13" t="n">
-        <v>0.345098039215686</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="L13" t="n">
-        <v>0.198504412494352</v>
+        <v>0.151727477082578</v>
       </c>
       <c r="M13" t="n">
-        <v>0.443137254901961</v>
+        <v>0.298039215686275</v>
       </c>
       <c r="N13" t="n">
-        <v>0.185839503634152</v>
+        <v>0.147656233231732</v>
       </c>
       <c r="O13" t="n">
-        <v>0.290196078431373</v>
+        <v>0.172549019607843</v>
       </c>
       <c r="P13" t="n">
-        <v>0.162294994747535</v>
+        <v>0.11878582045983</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.255958625306257</v>
+        <v>0.202271016082777</v>
       </c>
       <c r="R13" t="n">
-        <v>0.455041255393952</v>
+        <v>0.0890197138320948</v>
       </c>
       <c r="S13" t="n">
-        <v>0.087523655552637</v>
+        <v>0.370334551548454</v>
       </c>
       <c r="T13" t="n">
-        <v>0.620310576949488</v>
+        <v>0.600461227239149</v>
       </c>
       <c r="U13" t="n">
-        <v>0.358445672308588</v>
+        <v>0.302898770374078</v>
       </c>
       <c r="V13" t="n">
-        <v>0.514755209454413</v>
+        <v>0.14213370866952</v>
       </c>
       <c r="W13" t="n">
-        <v>0.128105580489825</v>
+        <v>0.455013445386616</v>
       </c>
       <c r="X13" t="n">
-        <v>0.622696497239834</v>
+        <v>0.567875344106495</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.235539756177254</v>
+        <v>0.174116989041582</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.374431546795418</v>
+        <v>0.0989141206485668</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.127434475362088</v>
+        <v>0.269907272889382</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.560097415973341</v>
+        <v>0.526042174298197</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.292616968471367</v>
+        <v>0.370322639948525</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.281349388730582</v>
+        <v>0.319696663296259</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.217527346263443</v>
+        <v>0.243408401507491</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.208506296534608</v>
+        <v>0.066572295247725</v>
       </c>
       <c r="AG13" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="AH13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ13" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -2295,543 +2298,543 @@
         <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E14" t="n">
-        <v>40.328281</v>
+        <v>40.38491</v>
       </c>
       <c r="F14" t="n">
-        <v>-74.804559</v>
+        <v>-74.75798</v>
       </c>
       <c r="G14" t="n">
-        <v>40.333104</v>
+        <v>40.38963</v>
       </c>
       <c r="H14" t="n">
-        <v>-74.815095</v>
+        <v>-74.768464</v>
       </c>
       <c r="I14" t="n">
-        <v>40.323715</v>
+        <v>40.380318</v>
       </c>
       <c r="J14" t="n">
-        <v>-74.793998</v>
+        <v>-74.747441</v>
       </c>
       <c r="K14" t="n">
-        <v>0.329411764705882</v>
+        <v>0.345098039215686</v>
       </c>
       <c r="L14" t="n">
-        <v>0.183228567361292</v>
+        <v>0.198504412494352</v>
       </c>
       <c r="M14" t="n">
-        <v>0.396078431372549</v>
+        <v>0.443137254901961</v>
       </c>
       <c r="N14" t="n">
-        <v>0.15019975992904</v>
+        <v>0.185839503634152</v>
       </c>
       <c r="O14" t="n">
-        <v>0.27843137254902</v>
+        <v>0.290196078431373</v>
       </c>
       <c r="P14" t="n">
-        <v>0.150453112360651</v>
+        <v>0.162294994747535</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.462950508940274</v>
+        <v>0.255958625306257</v>
       </c>
       <c r="R14" t="n">
-        <v>0.281082899909653</v>
+        <v>0.455041255393952</v>
       </c>
       <c r="S14" t="n">
-        <v>0.110685551703696</v>
+        <v>0.087523655552637</v>
       </c>
       <c r="T14" t="n">
-        <v>0.631634873610581</v>
+        <v>0.620310576949488</v>
       </c>
       <c r="U14" t="n">
-        <v>0.464485779537104</v>
+        <v>0.358445672308588</v>
       </c>
       <c r="V14" t="n">
-        <v>0.360031670451495</v>
+        <v>0.514755209454413</v>
       </c>
       <c r="W14" t="n">
-        <v>0.186868500466639</v>
+        <v>0.128105580489825</v>
       </c>
       <c r="X14" t="n">
-        <v>0.620792661884389</v>
+        <v>0.622696497239834</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.380036630920949</v>
+        <v>0.235539756177254</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.250823724757652</v>
+        <v>0.374431546795418</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.149205125953322</v>
+        <v>0.127434475362088</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.604837670921773</v>
+        <v>0.560097415973341</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.313561908263627</v>
+        <v>0.292616968471367</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.295247724974722</v>
+        <v>0.281349388730582</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.27952753010387</v>
+        <v>0.217527346263443</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.111662836657781</v>
+        <v>0.208506296534608</v>
       </c>
       <c r="AG14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH14" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="AI14" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40.328281</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-74.804559</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40.333104</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-74.815095</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40.323715</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-74.793998</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.329411764705882</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.183228567361292</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.396078431372549</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.15019975992904</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.27843137254902</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.150453112360651</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.462950508940274</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.281082899909653</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.110685551703696</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.631634873610581</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.464485779537104</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.360031670451495</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.186868500466639</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.620792661884389</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.380036630920949</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.250823724757652</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.149205125953322</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.604837670921773</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.313561908263627</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.295247724974722</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.27952753010387</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.111662836657781</v>
+      </c>
+      <c r="AG15" t="s">
         <v>118</v>
       </c>
-      <c r="C15" t="s">
+      <c r="AH15" t="s">
         <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40.321026</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-74.78868</v>
-      </c>
-      <c r="G15" t="n">
-        <v>40.325808</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-74.799129</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40.316351</v>
-      </c>
-      <c r="J15" t="n">
-        <v>-74.778149</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.231372549019608</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.170894891135323</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.325490196078431</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.145261227193099</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.231372549019608</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.13545251461225</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.206444680524838</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.390046191918003</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.0836848169028731</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.580933795121053</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.300862874212152</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.437777413561041</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.158393372657287</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.573260888704429</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.217562306728383</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.336048516805769</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.143705626233839</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.547460035970806</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.343959922787021</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.275801084658516</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.256997885835095</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.123241106719368</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>73</v>
       </c>
       <c r="AI15" t="s">
         <v>120</v>
       </c>
       <c r="AJ15" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E16" t="n">
-        <v>40.343974</v>
+        <v>40.321026</v>
       </c>
       <c r="F16" t="n">
-        <v>-74.656639</v>
+        <v>-74.78868</v>
       </c>
       <c r="G16" t="n">
-        <v>40.349467</v>
+        <v>40.325808</v>
       </c>
       <c r="H16" t="n">
-        <v>-74.667281</v>
+        <v>-74.799129</v>
       </c>
       <c r="I16" t="n">
-        <v>40.339448</v>
+        <v>40.316351</v>
       </c>
       <c r="J16" t="n">
-        <v>-74.646367</v>
+        <v>-74.778149</v>
       </c>
       <c r="K16" t="n">
-        <v>0.36078431372549</v>
+        <v>0.231372549019608</v>
       </c>
       <c r="L16" t="n">
-        <v>0.17515960232127</v>
+        <v>0.170894891135323</v>
       </c>
       <c r="M16" t="n">
-        <v>0.435294117647059</v>
+        <v>0.325490196078431</v>
       </c>
       <c r="N16" t="n">
-        <v>0.15533061077335</v>
+        <v>0.145261227193099</v>
       </c>
       <c r="O16" t="n">
-        <v>0.368627450980392</v>
+        <v>0.231372549019608</v>
       </c>
       <c r="P16" t="n">
-        <v>0.151963265609189</v>
+        <v>0.13545251461225</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.358543282407924</v>
+        <v>0.20737078805117</v>
       </c>
       <c r="R16" t="n">
-        <v>0.203314677689189</v>
+        <v>0.391087004619425</v>
       </c>
       <c r="S16" t="n">
-        <v>0.525274304480216</v>
+        <v>0.0841149590697816</v>
       </c>
       <c r="T16" t="n">
-        <v>0.705015402897754</v>
+        <v>0.581359305045626</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4336226624657</v>
+        <v>0.301789106646768</v>
       </c>
       <c r="V16" t="n">
-        <v>0.25855227141954</v>
+        <v>0.438322722436742</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5349709652057</v>
+        <v>0.158961548114639</v>
       </c>
       <c r="X16" t="n">
-        <v>0.698117525176316</v>
+        <v>0.573688618737303</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.366417251664178</v>
+        <v>0.218103124095806</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.270016072657327</v>
+        <v>0.336845663020325</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.528691647663216</v>
+        <v>0.143980108602609</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.705629203040954</v>
+        <v>0.547984255399124</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.335779023807335</v>
+        <v>0.344224653001195</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.32488647853663</v>
+        <v>0.274203511352146</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.221033183196985</v>
+        <v>0.258955786377424</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.11830131445905</v>
+        <v>0.122616049269234</v>
       </c>
       <c r="AG16" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="AJ16" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="n">
+        <v>40.343974</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-74.656639</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40.349467</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-74.667281</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40.339448</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-74.646367</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.36078431372549</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.17515960232127</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.435294117647059</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.15533061077335</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.368627450980392</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.151963265609189</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.358543282407924</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.203314677689189</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.525274304480216</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.705015402897754</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4336226624657</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.25855227141954</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5349709652057</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.698117525176316</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.366417251664178</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.270016072657327</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.528691647663216</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.705629203040954</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.335779023807335</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.32488647853663</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.221033183196985</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.11830131445905</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="s">
         <v>129</v>
       </c>
-      <c r="D17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="n">
-        <v>40.342717</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-74.650305</v>
-      </c>
-      <c r="G17" t="n">
-        <v>40.348189</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-74.660791</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40.33804</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-74.639794</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.364705882352941</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.174475741925264</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.450980392156863</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.154736737354603</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.364705882352941</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.145091994702422</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.344012641918886</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.190309610674182</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.515148813856624</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.687614098219969</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.432651044475617</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.241910063541682</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.532293192492371</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.677823725456559</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.348394033282091</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.257001506728092</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.487912493259855</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.68110828614955</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.33165180623219</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.297185403070135</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.253300854857983</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.117861935839691</v>
-      </c>
-      <c r="AG17" t="s">
+      <c r="AJ17" t="s">
         <v>130</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" t="s">
         <v>133</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40.342717</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-74.650305</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40.348189</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-74.660791</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40.33804</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-74.639794</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.364705882352941</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.174475741925264</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.450980392156863</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.154736737354603</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.364705882352941</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.145091994702422</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.356261806313322</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.194850283024521</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.525566946903799</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.694131197973576</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.442678137584091</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.24878967840583</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.537822290438467</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.684694142633627</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.355300550340678</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.260185432228231</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.499738905286236</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.687780908810281</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.333982902840335</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.318174464564758</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.23877746116371</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.109065171431198</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI18" t="s">
         <v>134</v>
       </c>
-      <c r="C18" t="s">
+      <c r="AJ18" t="s">
         <v>135</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" t="n">
-        <v>40.345588</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-74.654241</v>
-      </c>
-      <c r="G18" t="n">
-        <v>40.351254</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-74.664658</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40.341234</v>
-      </c>
-      <c r="J18" t="n">
-        <v>-74.644531</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.376470588235294</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.179252263829568</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.447058823529412</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.158247083565364</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.384313725490196</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.155814330813138</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.35887760094274</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.203343729869588</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.53524837089521</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.708196479734466</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.432627021301034</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.255824086239108</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.538144906887593</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.702090147465287</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.371118017178743</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.274422288621221</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.539277201320732</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.710218166414643</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.338928210313448</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.297141281367773</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.231348469528449</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0.13258203879033</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -2845,213 +2848,323 @@
         <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>40.334348</v>
+        <v>40.345588</v>
       </c>
       <c r="F19" t="n">
-        <v>-74.647146</v>
+        <v>-74.654241</v>
       </c>
       <c r="G19" t="n">
-        <v>40.339777</v>
+        <v>40.351254</v>
       </c>
       <c r="H19" t="n">
-        <v>-74.657633</v>
+        <v>-74.664658</v>
       </c>
       <c r="I19" t="n">
-        <v>40.329822</v>
+        <v>40.341234</v>
       </c>
       <c r="J19" t="n">
-        <v>-74.636555</v>
+        <v>-74.644531</v>
       </c>
       <c r="K19" t="n">
-        <v>0.345098039215686</v>
+        <v>0.376470588235294</v>
       </c>
       <c r="L19" t="n">
-        <v>0.187470744587476</v>
+        <v>0.179252263829568</v>
       </c>
       <c r="M19" t="n">
-        <v>0.443137254901961</v>
+        <v>0.447058823529412</v>
       </c>
       <c r="N19" t="n">
-        <v>0.157282955289314</v>
+        <v>0.158247083565364</v>
       </c>
       <c r="O19" t="n">
-        <v>0.337254901960784</v>
+        <v>0.384313725490196</v>
       </c>
       <c r="P19" t="n">
-        <v>0.136755445271293</v>
+        <v>0.155814330813138</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.281762610210906</v>
+        <v>0.358975282034881</v>
       </c>
       <c r="R19" t="n">
-        <v>0.47168677079033</v>
+        <v>0.203392111161326</v>
       </c>
       <c r="S19" t="n">
-        <v>0.161156313548789</v>
+        <v>0.535312667081293</v>
       </c>
       <c r="T19" t="n">
-        <v>0.672771220419933</v>
+        <v>0.708226242753878</v>
       </c>
       <c r="U19" t="n">
-        <v>0.392423279320589</v>
+        <v>0.432701865828553</v>
       </c>
       <c r="V19" t="n">
-        <v>0.512962819244113</v>
+        <v>0.255899972833747</v>
       </c>
       <c r="W19" t="n">
-        <v>0.21956786741085</v>
+        <v>0.538183589518163</v>
       </c>
       <c r="X19" t="n">
-        <v>0.652060028354303</v>
+        <v>0.702118693622754</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.301986974417739</v>
+        <v>0.371185277878651</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.425045152390682</v>
+        <v>0.274449458668926</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.237267684167957</v>
+        <v>0.539354199108502</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.605873809086729</v>
+        <v>0.710244685995477</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.311333762294329</v>
+        <v>0.338849158930049</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.280079051383399</v>
+        <v>0.297360051475319</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.230120415479364</v>
+        <v>0.231252872506664</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.178466770842908</v>
+        <v>0.132537917087968</v>
       </c>
       <c r="AG19" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
         <v>140</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>141</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40.334348</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-74.647146</v>
+      </c>
+      <c r="G20" t="n">
+        <v>40.339777</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-74.657633</v>
+      </c>
+      <c r="I20" t="n">
+        <v>40.329822</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-74.636555</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.345098039215686</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.187470744587476</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.443137254901961</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.157282955289314</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.337254901960784</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.136755445271293</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.281762610210906</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.47168677079033</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.161156313548789</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.672771220419933</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.392423279320589</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.512962819244113</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.21956786741085</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.652060028354303</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.301986974417739</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.425045152390682</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.237267684167957</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.605873809086729</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.311333762294329</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.280079051383399</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.230120415479364</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.178466770842908</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH20" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
+      <c r="AI20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>143</v>
       </c>
-      <c r="E20" t="n">
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="n">
         <v>40.35151</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>-74.660325</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>40.363008</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>-74.68288</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>40.3416</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>-74.637668</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>0.372549019607843</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L21" t="n">
         <v>0.173446605606153</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M21" t="n">
         <v>0.427450980392157</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N21" t="n">
         <v>0.151184535363136</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O21" t="n">
         <v>0.384313725490196</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>0.153180724236514</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>0.343994694593229</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R21" t="n">
         <v>0.201209763830925</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>0.519629791943684</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>0.690415870912438</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U21" t="n">
         <v>0.408496893229321</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V21" t="n">
         <v>0.256883556735774</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W21" t="n">
         <v>0.520566614190521</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X21" t="n">
         <v>0.685633473875193</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y21" t="n">
         <v>0.361827564607636</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z21" t="n">
         <v>0.272985472455147</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA21" t="n">
         <v>0.527814672260072</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB21" t="n">
         <v>0.696571028406205</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC21" t="n">
         <v>0.342873425866348</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD21" t="n">
         <v>0.268123908447468</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE21" t="n">
         <v>0.247498850997334</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF21" t="n">
         <v>0.14150381468885</v>
       </c>
-      <c r="AG20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AG21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s">
         <v>41</v>
       </c>
-      <c r="AI20" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>146</v>
+      <c r="AI21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3070,10 +3183,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -3081,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -3089,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -3097,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -3105,7 +3218,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
@@ -3113,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
@@ -3121,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -3129,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -3137,7 +3250,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
@@ -3145,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -3153,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -3161,7 +3274,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -3169,7 +3282,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
@@ -3177,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -3185,7 +3298,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -3193,7 +3306,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -3201,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -3209,7 +3322,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -3217,7 +3330,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
@@ -3225,7 +3338,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -3233,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
@@ -3241,7 +3354,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
@@ -3249,7 +3362,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -3257,7 +3370,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
@@ -3265,7 +3378,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -3273,7 +3386,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27">
@@ -3281,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28">
@@ -3289,7 +3402,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29">
@@ -3297,7 +3410,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30">
@@ -3305,7 +3418,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31">
@@ -3313,7 +3426,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32">
@@ -3321,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
@@ -3329,7 +3442,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -3337,7 +3450,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3458,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3466,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
@@ -3361,7 +3474,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
